--- a/GUI + Reviews/202509/Review 202509/Dataiku/BNEW_EMS_2025-09-12_2025-09-14-14-47-55.xlsx
+++ b/GUI + Reviews/202509/Review 202509/Dataiku/BNEW_EMS_2025-09-12_2025-09-14-14-47-55.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202509/Review 202509/Dataiku/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_A6F652D1A33415F1761E84F429E2CA27D729E81E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A345110-CB5E-49F0-BD96-0918B1205766}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_A6F652D1A33415F1761E84F429E2CA27D729E81E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C0FB937-88AA-4EAF-A9A6-AD623D089B30}"/>
   <bookViews>
-    <workbookView xWindow="-29370" yWindow="195" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="selection" sheetId="1" r:id="rId1"/>
@@ -429,208 +429,209 @@
       <sheetName val="Inclusion"/>
       <sheetName val="Exclusion"/>
       <sheetName val="Full Universe"/>
+      <sheetName val="AEX BEL"/>
       <sheetName val="Index Market Cap"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="D2">
-            <v>2618551</v>
+          <cell r="B2" t="str">
+            <v>BE0974293251</v>
           </cell>
         </row>
         <row r="3">
-          <cell r="D3">
-            <v>5082592</v>
+          <cell r="B3" t="str">
+            <v>NL0011540547</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="D4">
-            <v>478758</v>
+          <cell r="B4" t="str">
+            <v>NL0012969182</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="D5">
-            <v>97329</v>
+          <cell r="B5" t="str">
+            <v>BMG0112X1056</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="D6">
-            <v>19718007</v>
+          <cell r="B6" t="str">
+            <v>BE0974264930</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="D7">
-            <v>2211614</v>
+          <cell r="B7" t="str">
+            <v>NL0011794037</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="D8">
-            <v>3814906</v>
+          <cell r="B8" t="str">
+            <v>NL0013267909</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="D9">
-            <v>2139339</v>
+          <cell r="B9" t="str">
+            <v>LU1598757687</v>
           </cell>
         </row>
         <row r="10">
-          <cell r="D10">
-            <v>4424723</v>
+          <cell r="B10" t="str">
+            <v>NL0010832176</v>
           </cell>
         </row>
         <row r="11">
-          <cell r="D11">
-            <v>203177</v>
+          <cell r="B11" t="str">
+            <v>NL0000334118</v>
           </cell>
         </row>
         <row r="12">
-          <cell r="D12">
-            <v>308428</v>
+          <cell r="B12" t="str">
+            <v>NL0010273215</v>
           </cell>
         </row>
         <row r="13">
-          <cell r="D13">
-            <v>161853</v>
+          <cell r="B13" t="str">
+            <v>NL0011872643</v>
           </cell>
         </row>
         <row r="14">
-          <cell r="D14">
-            <v>2235785</v>
+          <cell r="B14" t="str">
+            <v>NL0012866412</v>
           </cell>
         </row>
         <row r="15">
-          <cell r="D15">
-            <v>1170564</v>
+          <cell r="B15" t="str">
+            <v>JE00BRX98089</v>
           </cell>
         </row>
         <row r="16">
-          <cell r="D16">
-            <v>792060</v>
+          <cell r="B16" t="str">
+            <v>BE0974259880</v>
           </cell>
         </row>
         <row r="17">
-          <cell r="D17">
-            <v>1626834</v>
+          <cell r="B17" t="str">
+            <v>CH1216478797</v>
           </cell>
         </row>
         <row r="18">
-          <cell r="D18">
-            <v>1374568</v>
+          <cell r="B18" t="str">
+            <v>BE0003822393</v>
           </cell>
         </row>
         <row r="19">
-          <cell r="D19">
-            <v>1559590</v>
+          <cell r="B19" t="str">
+            <v>NL0012059018</v>
           </cell>
         </row>
         <row r="20">
-          <cell r="D20">
-            <v>1469030</v>
+          <cell r="B20" t="str">
+            <v>NL0000009165</v>
           </cell>
         </row>
         <row r="21">
-          <cell r="D21">
-            <v>1983751</v>
+          <cell r="B21" t="str">
+            <v>NL0010801007</v>
           </cell>
         </row>
         <row r="22">
-          <cell r="D22">
-            <v>1428405</v>
+          <cell r="B22" t="str">
+            <v>NL0011821202</v>
           </cell>
         </row>
         <row r="23">
-          <cell r="D23">
-            <v>6065674</v>
+          <cell r="B23" t="str">
+            <v>LU2290522684</v>
           </cell>
         </row>
         <row r="24">
-          <cell r="D24">
-            <v>1285494</v>
+          <cell r="B24" t="str">
+            <v>NL0014332678</v>
           </cell>
         </row>
         <row r="25">
-          <cell r="D25">
-            <v>30770286</v>
+          <cell r="B25" t="str">
+            <v>NL0012015705</v>
           </cell>
         </row>
         <row r="26">
-          <cell r="D26">
-            <v>15680</v>
+          <cell r="B26" t="str">
+            <v>BE0003565737</v>
           </cell>
         </row>
         <row r="27">
-          <cell r="D27">
-            <v>2210121</v>
+          <cell r="B27" t="str">
+            <v>NL0000009082</v>
           </cell>
         </row>
         <row r="28">
-          <cell r="D28">
-            <v>5446238</v>
+          <cell r="B28" t="str">
+            <v>NL0010773842</v>
           </cell>
         </row>
         <row r="29">
-          <cell r="D29">
-            <v>2398380</v>
+          <cell r="B29" t="str">
+            <v>NL0000009538</v>
           </cell>
         </row>
         <row r="30">
-          <cell r="D30">
-            <v>3054617</v>
+          <cell r="B30" t="str">
+            <v>NL0013654783</v>
           </cell>
         </row>
         <row r="31">
-          <cell r="D31">
-            <v>2806593</v>
+          <cell r="B31" t="str">
+            <v>NL0000379121</v>
           </cell>
         </row>
         <row r="32">
-          <cell r="D32">
-            <v>4270306</v>
+          <cell r="B32" t="str">
+            <v>GB00B2B0DG97</v>
           </cell>
         </row>
         <row r="33">
-          <cell r="D33">
-            <v>517910</v>
+          <cell r="B33" t="str">
+            <v>GB00BP6MXD84</v>
           </cell>
         </row>
         <row r="34">
-          <cell r="D34">
-            <v>4767938</v>
+          <cell r="B34" t="str">
+            <v>BE0974464977</v>
           </cell>
         </row>
         <row r="35">
-          <cell r="D35">
-            <v>1815413</v>
+          <cell r="B35" t="str">
+            <v>BE0003739530</v>
           </cell>
         </row>
         <row r="36">
-          <cell r="D36">
-            <v>631280</v>
+          <cell r="B36" t="str">
+            <v>NL0015000IY2</v>
           </cell>
         </row>
         <row r="37">
-          <cell r="D37">
-            <v>5324423</v>
+          <cell r="B37" t="str">
+            <v>BE0974320526</v>
           </cell>
         </row>
         <row r="38">
-          <cell r="D38">
-            <v>9948903</v>
+          <cell r="B38" t="str">
+            <v>GB00B10RZP78</v>
           </cell>
         </row>
         <row r="39">
-          <cell r="D39">
-            <v>2441767</v>
+          <cell r="B39" t="str">
+            <v>BE0974349814</v>
           </cell>
         </row>
         <row r="40">
-          <cell r="D40">
-            <v>6199222</v>
+          <cell r="B40" t="str">
+            <v>BE0974349814</v>
           </cell>
         </row>
         <row r="41">
-          <cell r="D41">
-            <v>1165873</v>
+          <cell r="B41" t="str">
+            <v>NL0000395903</v>
           </cell>
         </row>
       </sheetData>
@@ -638,9 +639,14 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -932,7 +938,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -988,7 +996,7 @@
         <v>91</v>
       </c>
       <c r="I2" t="b">
-        <f>D2='[1]Index Composition'!D2</f>
+        <f>B2='[1]Index Composition'!B2</f>
         <v>1</v>
       </c>
     </row>
@@ -1018,7 +1026,7 @@
         <v>91</v>
       </c>
       <c r="I3" t="b">
-        <f>D3='[1]Index Composition'!D3</f>
+        <f>B3='[1]Index Composition'!B3</f>
         <v>1</v>
       </c>
     </row>
@@ -1048,8 +1056,8 @@
         <v>91</v>
       </c>
       <c r="I4" t="b">
-        <f>D4='[1]Index Composition'!D4</f>
-        <v>0</v>
+        <f>B4='[1]Index Composition'!B4</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1078,8 +1086,8 @@
         <v>91</v>
       </c>
       <c r="I5" t="b">
-        <f>D5='[1]Index Composition'!D5</f>
-        <v>0</v>
+        <f>B5='[1]Index Composition'!B5</f>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1108,8 +1116,8 @@
         <v>91</v>
       </c>
       <c r="I6" t="b">
-        <f>D6='[1]Index Composition'!D6</f>
-        <v>0</v>
+        <f>B6='[1]Index Composition'!B6</f>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1138,8 +1146,8 @@
         <v>91</v>
       </c>
       <c r="I7" t="b">
-        <f>D7='[1]Index Composition'!D7</f>
-        <v>0</v>
+        <f>B7='[1]Index Composition'!B7</f>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1168,8 +1176,8 @@
         <v>91</v>
       </c>
       <c r="I8" t="b">
-        <f>D8='[1]Index Composition'!D8</f>
-        <v>0</v>
+        <f>B8='[1]Index Composition'!B8</f>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1198,8 +1206,8 @@
         <v>91</v>
       </c>
       <c r="I9" t="b">
-        <f>D9='[1]Index Composition'!D9</f>
-        <v>0</v>
+        <f>B9='[1]Index Composition'!B9</f>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1228,8 +1236,8 @@
         <v>91</v>
       </c>
       <c r="I10" t="b">
-        <f>D10='[1]Index Composition'!D10</f>
-        <v>0</v>
+        <f>B10='[1]Index Composition'!B10</f>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1258,8 +1266,8 @@
         <v>91</v>
       </c>
       <c r="I11" t="b">
-        <f>D11='[1]Index Composition'!D11</f>
-        <v>0</v>
+        <f>B11='[1]Index Composition'!B11</f>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1288,8 +1296,8 @@
         <v>91</v>
       </c>
       <c r="I12" t="b">
-        <f>D12='[1]Index Composition'!D12</f>
-        <v>0</v>
+        <f>B12='[1]Index Composition'!B12</f>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1318,8 +1326,8 @@
         <v>91</v>
       </c>
       <c r="I13" t="b">
-        <f>D13='[1]Index Composition'!D13</f>
-        <v>0</v>
+        <f>B13='[1]Index Composition'!B13</f>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1348,8 +1356,8 @@
         <v>91</v>
       </c>
       <c r="I14" t="b">
-        <f>D14='[1]Index Composition'!D14</f>
-        <v>0</v>
+        <f>B14='[1]Index Composition'!B14</f>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1378,8 +1386,8 @@
         <v>91</v>
       </c>
       <c r="I15" t="b">
-        <f>D15='[1]Index Composition'!D15</f>
-        <v>0</v>
+        <f>B15='[1]Index Composition'!B15</f>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1408,7 +1416,7 @@
         <v>91</v>
       </c>
       <c r="I16" t="b">
-        <f>D16='[1]Index Composition'!D16</f>
+        <f>B16='[1]Index Composition'!B16</f>
         <v>1</v>
       </c>
     </row>
@@ -1438,7 +1446,7 @@
         <v>91</v>
       </c>
       <c r="I17" t="b">
-        <f>D17='[1]Index Composition'!D17</f>
+        <f>B17='[1]Index Composition'!B17</f>
         <v>1</v>
       </c>
     </row>
@@ -1468,7 +1476,7 @@
         <v>91</v>
       </c>
       <c r="I18" t="b">
-        <f>D18='[1]Index Composition'!D18</f>
+        <f>B18='[1]Index Composition'!B18</f>
         <v>1</v>
       </c>
     </row>
@@ -1498,7 +1506,7 @@
         <v>91</v>
       </c>
       <c r="I19" t="b">
-        <f>D19='[1]Index Composition'!D19</f>
+        <f>B19='[1]Index Composition'!B19</f>
         <v>1</v>
       </c>
     </row>
@@ -1528,7 +1536,7 @@
         <v>91</v>
       </c>
       <c r="I20" t="b">
-        <f>D20='[1]Index Composition'!D20</f>
+        <f>B20='[1]Index Composition'!B20</f>
         <v>0</v>
       </c>
     </row>
@@ -1558,8 +1566,8 @@
         <v>91</v>
       </c>
       <c r="I21" t="b">
-        <f>D21='[1]Index Composition'!D21</f>
-        <v>1</v>
+        <f>B21='[1]Index Composition'!B21</f>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1588,8 +1596,8 @@
         <v>91</v>
       </c>
       <c r="I22" t="b">
-        <f>D22='[1]Index Composition'!D22</f>
-        <v>1</v>
+        <f>B22='[1]Index Composition'!B22</f>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1618,8 +1626,8 @@
         <v>91</v>
       </c>
       <c r="I23" t="b">
-        <f>D23='[1]Index Composition'!D23</f>
-        <v>1</v>
+        <f>B23='[1]Index Composition'!B23</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1648,7 +1656,7 @@
         <v>91</v>
       </c>
       <c r="I24" t="b">
-        <f>D24='[1]Index Composition'!D24</f>
+        <f>B24='[1]Index Composition'!B24</f>
         <v>0</v>
       </c>
     </row>
@@ -1678,7 +1686,7 @@
         <v>91</v>
       </c>
       <c r="I25" t="b">
-        <f>D25='[1]Index Composition'!D25</f>
+        <f>B25='[1]Index Composition'!B25</f>
         <v>0</v>
       </c>
     </row>
@@ -1708,7 +1716,7 @@
         <v>91</v>
       </c>
       <c r="I26" t="b">
-        <f>D26='[1]Index Composition'!D26</f>
+        <f>B26='[1]Index Composition'!B26</f>
         <v>0</v>
       </c>
     </row>
@@ -1738,7 +1746,7 @@
         <v>91</v>
       </c>
       <c r="I27" t="b">
-        <f>D27='[1]Index Composition'!D27</f>
+        <f>B27='[1]Index Composition'!B27</f>
         <v>0</v>
       </c>
     </row>
@@ -1768,7 +1776,7 @@
         <v>91</v>
       </c>
       <c r="I28" t="b">
-        <f>D28='[1]Index Composition'!D28</f>
+        <f>B28='[1]Index Composition'!B28</f>
         <v>0</v>
       </c>
     </row>
@@ -1798,7 +1806,7 @@
         <v>91</v>
       </c>
       <c r="I29" t="b">
-        <f>D29='[1]Index Composition'!D29</f>
+        <f>B29='[1]Index Composition'!B29</f>
         <v>0</v>
       </c>
     </row>
@@ -1828,7 +1836,7 @@
         <v>91</v>
       </c>
       <c r="I30" t="b">
-        <f>D30='[1]Index Composition'!D30</f>
+        <f>B30='[1]Index Composition'!B30</f>
         <v>0</v>
       </c>
     </row>
@@ -1858,7 +1866,7 @@
         <v>91</v>
       </c>
       <c r="I31" t="b">
-        <f>D31='[1]Index Composition'!D31</f>
+        <f>B31='[1]Index Composition'!B31</f>
         <v>0</v>
       </c>
     </row>
@@ -1888,7 +1896,7 @@
         <v>91</v>
       </c>
       <c r="I32" t="b">
-        <f>D32='[1]Index Composition'!D32</f>
+        <f>B32='[1]Index Composition'!B32</f>
         <v>0</v>
       </c>
     </row>
@@ -1918,7 +1926,7 @@
         <v>91</v>
       </c>
       <c r="I33" t="b">
-        <f>D33='[1]Index Composition'!D33</f>
+        <f>B33='[1]Index Composition'!B33</f>
         <v>0</v>
       </c>
     </row>
@@ -1948,7 +1956,7 @@
         <v>91</v>
       </c>
       <c r="I34" t="b">
-        <f>D34='[1]Index Composition'!D34</f>
+        <f>B34='[1]Index Composition'!B34</f>
         <v>0</v>
       </c>
     </row>
@@ -1978,8 +1986,8 @@
         <v>91</v>
       </c>
       <c r="I35" t="b">
-        <f>D35='[1]Index Composition'!D35</f>
-        <v>1</v>
+        <f>B35='[1]Index Composition'!B35</f>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2008,8 +2016,8 @@
         <v>91</v>
       </c>
       <c r="I36" t="b">
-        <f>D36='[1]Index Composition'!D36</f>
-        <v>1</v>
+        <f>B36='[1]Index Composition'!B36</f>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2038,8 +2046,8 @@
         <v>91</v>
       </c>
       <c r="I37" t="b">
-        <f>D37='[1]Index Composition'!D37</f>
-        <v>1</v>
+        <f>B37='[1]Index Composition'!B37</f>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2068,8 +2076,8 @@
         <v>91</v>
       </c>
       <c r="I38" t="b">
-        <f>D38='[1]Index Composition'!D38</f>
-        <v>1</v>
+        <f>B38='[1]Index Composition'!B38</f>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2098,8 +2106,8 @@
         <v>91</v>
       </c>
       <c r="I39" t="b">
-        <f>D39='[1]Index Composition'!D39</f>
-        <v>1</v>
+        <f>B39='[1]Index Composition'!B39</f>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2128,7 +2136,7 @@
         <v>91</v>
       </c>
       <c r="I40" t="b">
-        <f>D40='[1]Index Composition'!D40</f>
+        <f>B40='[1]Index Composition'!B40</f>
         <v>1</v>
       </c>
     </row>
@@ -2158,7 +2166,7 @@
         <v>91</v>
       </c>
       <c r="I41" t="b">
-        <f>D41='[1]Index Composition'!D41</f>
+        <f>B41='[1]Index Composition'!B41</f>
         <v>1</v>
       </c>
     </row>
